--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t xml:space="preserve">Wallet </t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">0x3bC8631E2c59f99180B738D6aEFd881921A6AF5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x56Dc54Ac98Bc3556AD446Fd3Bf3C49962e32eB22</t>
   </si>
 </sst>
 </file>
@@ -43,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,8 +106,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,40 +238,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve">Wallet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFT</t>
   </si>
   <si>
     <t xml:space="preserve">0x3bC8631E2c59f99180B738D6aEFd881921A6AF5A</t>
@@ -238,10 +235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,32 +251,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AAC3E8-0424-460B-BDC4-0A8231782174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-22425" yWindow="1965" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,45 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Wallet </t>
   </si>
   <si>
-    <t xml:space="preserve">0x3bC8631E2c59f99180B738D6aEFd881921A6AF5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x56Dc54Ac98Bc3556AD446Fd3Bf3C49962e32eB22</t>
+    <t>0xD6980B8f28d0b6Fa89b7476841E341c57508a3F6</t>
+  </si>
+  <si>
+    <t>0x1b87c13CEd5867CA86f1d882793b075D7875DFEC</t>
+  </si>
+  <si>
+    <t>0x3134412C205615Be474d24484abE5753809F502e</t>
+  </si>
+  <si>
+    <t>0x046cd7B314cB8476f72413F72d30E0E10DF9E295</t>
+  </si>
+  <si>
+    <t>0xd9c5c0946045bd097527aecb614ae78fe33fd96a</t>
+  </si>
+  <si>
+    <t>0x5ef24c043d558DF8dE81EeF19fC6C9cfbe2CefF5</t>
+  </si>
+  <si>
+    <t>0x0C759509dE69C23F4fd35BdE9148A34743586fF8</t>
+  </si>
+  <si>
+    <t>0x4b7292679D439CCd83B972A5fF848b47391AFfCA</t>
+  </si>
+  <si>
+    <t>0x98D5ba40a5407C73B63842A027b4C17e6C7553cD</t>
+  </si>
+  <si>
+    <t>0xC5d1163209346C9A538566f706c6BC8Ad68c2FdC</t>
+  </si>
+  <si>
+    <t>0x807cE865227167fde7E0777d8498837b945390f5</t>
+  </si>
+  <si>
+    <t>0x19246d4cB92671D0F2166D00C9de687Ead3206F8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +87,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -78,103 +95,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -227,51 +220,94 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.57"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AAC3E8-0424-460B-BDC4-0A8231782174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24370ED-7834-4607-9D67-9B3EC56E0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22425" yWindow="1965" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21390" yWindow="2040" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Wallet </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>0x19246d4cB92671D0F2166D00C9de687Ead3206F8</t>
+  </si>
+  <si>
+    <t>0x51200FdaC8E4C58529E2DDF51535C23ca50E1619</t>
   </si>
 </sst>
 </file>
@@ -227,10 +230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -304,6 +307,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24370ED-7834-4607-9D67-9B3EC56E0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB49AFBE-D019-4E71-9739-3B7AF5907876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21390" yWindow="2040" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Wallet </t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>0x51200FdaC8E4C58529E2DDF51535C23ca50E1619</t>
+  </si>
+  <si>
+    <t>0x8cc1680332B3F904eb97c133aCc69d6d80555094</t>
+  </si>
+  <si>
+    <t>0x09Ba138fdF94B6b8252dfB9413DA7865515663a9</t>
+  </si>
+  <si>
+    <t>0xd6ace9cdc35ad0a3348f70ad75426b27dc87ff58</t>
+  </si>
+  <si>
+    <t>0x77890e4C07acE06C62E17C8371d71AB3034708D8</t>
   </si>
 </sst>
 </file>
@@ -230,10 +242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -309,6 +321,26 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpharho/Documents/GitHub/ms-tokenlist/src/tokenLogos/nft-campaign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB49AFBE-D019-4E71-9739-3B7AF5907876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A0A52-BB4B-4240-905A-AAED4FC582C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21390" yWindow="2040" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,72 +25,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Wallet </t>
   </si>
   <si>
-    <t>0xD6980B8f28d0b6Fa89b7476841E341c57508a3F6</t>
-  </si>
-  <si>
-    <t>0x1b87c13CEd5867CA86f1d882793b075D7875DFEC</t>
-  </si>
-  <si>
-    <t>0x3134412C205615Be474d24484abE5753809F502e</t>
-  </si>
-  <si>
-    <t>0x046cd7B314cB8476f72413F72d30E0E10DF9E295</t>
-  </si>
-  <si>
-    <t>0xd9c5c0946045bd097527aecb614ae78fe33fd96a</t>
-  </si>
-  <si>
-    <t>0x5ef24c043d558DF8dE81EeF19fC6C9cfbe2CefF5</t>
-  </si>
-  <si>
-    <t>0x0C759509dE69C23F4fd35BdE9148A34743586fF8</t>
-  </si>
-  <si>
-    <t>0x4b7292679D439CCd83B972A5fF848b47391AFfCA</t>
-  </si>
-  <si>
-    <t>0x98D5ba40a5407C73B63842A027b4C17e6C7553cD</t>
-  </si>
-  <si>
-    <t>0xC5d1163209346C9A538566f706c6BC8Ad68c2FdC</t>
-  </si>
-  <si>
-    <t>0x807cE865227167fde7E0777d8498837b945390f5</t>
-  </si>
-  <si>
-    <t>0x19246d4cB92671D0F2166D00C9de687Ead3206F8</t>
-  </si>
-  <si>
-    <t>0x51200FdaC8E4C58529E2DDF51535C23ca50E1619</t>
-  </si>
-  <si>
-    <t>0x8cc1680332B3F904eb97c133aCc69d6d80555094</t>
-  </si>
-  <si>
-    <t>0x09Ba138fdF94B6b8252dfB9413DA7865515663a9</t>
-  </si>
-  <si>
-    <t>0xd6ace9cdc35ad0a3348f70ad75426b27dc87ff58</t>
-  </si>
-  <si>
-    <t>0x77890e4C07acE06C62E17C8371d71AB3034708D8</t>
+    <t>0x0fbaec9ed47dbbe369a6d46f893ee10498b9b0eb</t>
+  </si>
+  <si>
+    <t>0x10471e93aa833bae98686f2cd11f2b97e32c484d</t>
+  </si>
+  <si>
+    <t>0x2cb4fee32988a13aaaf0f7f4d9801459aec741d3</t>
+  </si>
+  <si>
+    <t>0x58c276a543dd75c2e85947c7e033d0c580d22cd2</t>
+  </si>
+  <si>
+    <t>0x64adec21678f1fe758902505c90bd2b73f1e2b07</t>
+  </si>
+  <si>
+    <t>0x77be12ace1b4f5e14dba06da27b409efd891caf4</t>
+  </si>
+  <si>
+    <t>0x815918b717de5647ebd443e94f25bd685547a2a7</t>
+  </si>
+  <si>
+    <t>0x84df78dfb67fc0ab44a5c9c41e42f05b19c614be</t>
+  </si>
+  <si>
+    <t>0x8c79b8bd616677d1290b1aa2272a3164e14585ea</t>
+  </si>
+  <si>
+    <t>0xa120de88452eba31ed44f77809efd855a93e85a7</t>
+  </si>
+  <si>
+    <t>0xb83469e38ab9fb302bd47e460f671a3632b0b235</t>
+  </si>
+  <si>
+    <t>0xbe89e44db713ab9c5dd3d68a1e97c791b90cb371</t>
+  </si>
+  <si>
+    <t>0xbf870917dbe787794843e1d3069b1cda656d436e</t>
+  </si>
+  <si>
+    <t>0xc53a066807f6af5639a2d25e86169a517dd0d7ae</t>
+  </si>
+  <si>
+    <t>0xcc6c532d8fae5ca965fa1d070a70fb11632721b5</t>
+  </si>
+  <si>
+    <t>0xd958a50d7c987c169cfe472b66f8cb1c4c4dbff4</t>
+  </si>
+  <si>
+    <t>0xdd2d46f58303317afece7aa975e03abbdf8a4ae9</t>
+  </si>
+  <si>
+    <t>0xe4a1c2fe7407b9b0865ad0347a50ee0f376929b9</t>
+  </si>
+  <si>
+    <t>0xef0a36d7ae9f25bd76c9c169d77bfc96f5f11b0c</t>
+  </si>
+  <si>
+    <t>0x187bf045a494c063df15d220026cce3532663e14</t>
+  </si>
+  <si>
+    <t>0x52910fdf50e7f597e7ffb037c3cfc0b37d430f64</t>
+  </si>
+  <si>
+    <t>0x676a2326f49eb81a63ac0b87f84f779f456b7c9c</t>
+  </si>
+  <si>
+    <t>0x82520d8b71111518c89076656252c50fcef17168</t>
+  </si>
+  <si>
+    <t>0x8a7190b2db6fe5e6551180ddec53ae138bb401bc</t>
+  </si>
+  <si>
+    <t>0x99b553e06f1a59ed7231983d7d61eb0f707a3c85</t>
+  </si>
+  <si>
+    <t>0xa9f45360522e7cd1aa6d0dde1ab728f8fe310c62</t>
+  </si>
+  <si>
+    <t>0xad6f782903143427abdde2135fe2c6287c749d08</t>
+  </si>
+  <si>
+    <t>0xb10a17fa1bd936f1058d9eab01a742a7b60272d0</t>
+  </si>
+  <si>
+    <t>0xc57520601520fb6d94510489f9289df7cba2b675</t>
+  </si>
+  <si>
+    <t>0xc8e70da8d620f678193c1dbc6549179a5c9936d4</t>
+  </si>
+  <si>
+    <t>0xc9a13e5605be9223a0b27bf189f6515e4f841654</t>
+  </si>
+  <si>
+    <t>0xd673a2a20ee58f399ec94786940b458bf17b837c</t>
+  </si>
+  <si>
+    <t>0xd870e0af031778d00d53943bd55e00eed0d3013e</t>
+  </si>
+  <si>
+    <t>0xebafccd1651533d2b3346d6c8ae8f61bdefd784d</t>
+  </si>
+  <si>
+    <t>0xf8912130a09cccd6d214c66af73401cd1df6aafc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,106 +302,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve">Wallet</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">0x97db0e57b1c315a08cc889ed405adb100d7f137d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x3bC8631E2c59f99180B738D6aEFd881921A6AF5A</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -840,6 +843,11 @@
         <v>75</v>
       </c>
     </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD691C-9001-4541-B4B0-F9B8F7B31DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929CCE8-04E5-4AF7-9CBB-8BA1E9363D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21045" yWindow="2385" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
   <si>
     <t>Wallet</t>
   </si>
@@ -345,9 +345,6 @@
     <t>0x9496bb8b1ab607602f8705cc5cea25b51ac2d7c8</t>
   </si>
   <si>
-    <t>0x96a02206e8f5bde88eca1fc92e9213944e706b63</t>
-  </si>
-  <si>
     <t>0x9fb2e4361dc1b713f0d6330e002013aa4bfb700c</t>
   </si>
   <si>
@@ -382,6 +379,148 @@
   </si>
   <si>
     <t>0x85a0b544044E7740bAB87C37F1D4CE7D29b1106C</t>
+  </si>
+  <si>
+    <t>0xED0a8574387dc0f2cd0CC73a95Afe78d7A188E82</t>
+  </si>
+  <si>
+    <t>0x6a28c7cde821ffe28a319811eef0babf8a67a420</t>
+  </si>
+  <si>
+    <t>0xf1196bF726ed9227507f5a8b7C87Ae177124dB2B</t>
+  </si>
+  <si>
+    <t>0x1dDb98275A09552B5Be11e8E3118684eD6a809FC</t>
+  </si>
+  <si>
+    <t>0x1A0a7D94179451B7145F7c7079BDA5a45d09Ab67</t>
+  </si>
+  <si>
+    <t>0x99b6658539c85568fff49bd6d8d6ca50c067864c</t>
+  </si>
+  <si>
+    <t>0xf173B4aC187F4Eac08555CC1041c34F44a422A6f</t>
+  </si>
+  <si>
+    <t>0x40e891979e4a1430973acfeef8d053c00bcbdeaf</t>
+  </si>
+  <si>
+    <t>0xC1f26Cb2E2BA7465d739C8fac8532cBc73832845</t>
+  </si>
+  <si>
+    <t>0xDd3394DbBe18f2FF6BC70De3DB99d73C8AF7baE6</t>
+  </si>
+  <si>
+    <t>0x87A29be14C9a7F948D66634cb0b1Aa3ceC55C6D9</t>
+  </si>
+  <si>
+    <t>0x02afe5211cd9731b2e65bfc7857e73bda234f6d3</t>
+  </si>
+  <si>
+    <t>0x05e254cd48778b37001fa982441a557682e113f2</t>
+  </si>
+  <si>
+    <t>0x1ddb98275a09552b5be11e8e3118684ed6a809fc</t>
+  </si>
+  <si>
+    <t>0x2cd170d34740d2356c464f6bffec1d727a6c96e5</t>
+  </si>
+  <si>
+    <t>0x3274ea40898baaf3e3302e71b42963b74a7330bd</t>
+  </si>
+  <si>
+    <t>0x357ae2fea8aeac0f55dea43fe70ce15f4af06c64</t>
+  </si>
+  <si>
+    <t>0x3900e9a59c174c36f284ee6862e51316b7948bd7</t>
+  </si>
+  <si>
+    <t>0x488c2f8248a6c0242cf506a5ae06864e4368f9d2</t>
+  </si>
+  <si>
+    <t>0x4936f33b7b060c7336fd0e4c61316ea248da6827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x6c1fb03612e943d2b7cb0bbde0fb3470a0e633f2 
+</t>
+  </si>
+  <si>
+    <t>0x7592b6e868145277dd4b343ddb9a3065def7b85b</t>
+  </si>
+  <si>
+    <t>0x774d478cb54da2b9d36c1e1a9c4bbb95515eaf75</t>
+  </si>
+  <si>
+    <t>0x87d9fdf0ef434c581cd4a410df6fd736349faa4b</t>
+  </si>
+  <si>
+    <t>0x89c09f938807837cade465230e2e6cd0c7357ba2</t>
+  </si>
+  <si>
+    <t>0xa56217bf2694bde89ef2641ec75f2d27a283e723</t>
+  </si>
+  <si>
+    <t>0xac1b80e06f970879bfb8f2b92b59442593f332b6</t>
+  </si>
+  <si>
+    <t>0xac4dd773b0e88caa7e5d1fa75d3605ab1bd557a7</t>
+  </si>
+  <si>
+    <t>0xb070f08c5cc95c784b17ac78a2e53c8c3c8ca26a</t>
+  </si>
+  <si>
+    <t>0xb8d86d6db117e21c27636034d3dd8859018daf9c</t>
+  </si>
+  <si>
+    <t>0xbc0e3ce8ed71f3b366e0575428e10cbdac880a31</t>
+  </si>
+  <si>
+    <t>0xe2f9abb02c72014b5106f1531067af42b74a1ac5</t>
+  </si>
+  <si>
+    <t>0xe68D75Ed0e57Bb58D64Ee4317C55634fd9C6A51D</t>
+  </si>
+  <si>
+    <t>0xf5fcaae203bd5dd81ef969c3fecc872f38aeccab</t>
+  </si>
+  <si>
+    <t>0x1a0a7d94179451b7145f7c7079bda5a45d09ab67</t>
+  </si>
+  <si>
+    <t>0x27dd5747d456c3e5d9cba08c7fedc660f03ac6f4</t>
+  </si>
+  <si>
+    <t>0x39c4274ced5681802b2ad9fc83ec6b9d53f8a637</t>
+  </si>
+  <si>
+    <t>0x488C2F8248a6c0242cf506A5ae06864e4368F9d2</t>
+  </si>
+  <si>
+    <t>0x3bcc0a020f09dd10ec7a5a0b1a00095bd6e85146</t>
+  </si>
+  <si>
+    <t>0x42a1ef5ffdaf134eb958814e443db9c244375c8f</t>
+  </si>
+  <si>
+    <t>0x548d3b9d71c319a5e7b46fd5671e54da01c0982c</t>
+  </si>
+  <si>
+    <t>0x5db447eb1b37232f1a8020f911b1ca626513de44</t>
+  </si>
+  <si>
+    <t>0x745cd76273f5e1c78d0a2f1634d57a4bdf8cd00b</t>
+  </si>
+  <si>
+    <t>0xe0f1a6494ee81864a2bb84e31d7f252342b90476</t>
+  </si>
+  <si>
+    <t>0xe5729a7048730769b9fa78b142df80c28199985a</t>
+  </si>
+  <si>
+    <t>0xe68d75ed0e57bb58d64ee4317c55634fd9c6a51d</t>
+  </si>
+  <si>
+    <t>0xf2e4a05cbae83fb3173becee7a31686e8a6ae3ce</t>
   </si>
 </sst>
 </file>
@@ -415,8 +554,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A121"/>
+  <dimension ref="A1:A185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A121"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1160,6 +1302,326 @@
         <v>118</v>
       </c>
     </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929CCE8-04E5-4AF7-9CBB-8BA1E9363D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05118F62-0B6C-443C-AF1A-2A5C90991B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21045" yWindow="2385" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpharho/Documents/GitHub/ms-tokenlist/src/tokenLogos/nft-campaign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05118F62-0B6C-443C-AF1A-2A5C90991B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F18694-5545-1244-9B8B-486FB67E8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21045" yWindow="2385" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Metronix NFT List - For" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="221">
   <si>
     <t>Wallet</t>
   </si>
@@ -521,6 +521,174 @@
   </si>
   <si>
     <t>0xf2e4a05cbae83fb3173becee7a31686e8a6ae3ce</t>
+  </si>
+  <si>
+    <t>0x37Ee994efF3E52b9f588Bf137E7c057f5339761C</t>
+  </si>
+  <si>
+    <t>0x58242bb5af0fe9c11351cb062e168d8532b3938b</t>
+  </si>
+  <si>
+    <t>0xC8c53129f617789E5C9dB0Bd11Cc2B6CBdE51ddD</t>
+  </si>
+  <si>
+    <t>0x53888a8EbCee4605Edf6137768b1731dE072F17C</t>
+  </si>
+  <si>
+    <t>0x1A5A04171dC7143aFe49870fCDa9c875E5F86F38</t>
+  </si>
+  <si>
+    <t>0x68aeDee7DC9da33A1E7D32a6637361E409c40519</t>
+  </si>
+  <si>
+    <t>0x000000fa6e634d6d555bff2542e41176ef9dd6c6</t>
+  </si>
+  <si>
+    <t>0x01223843daba104d5cfc48006a8f22e777148971</t>
+  </si>
+  <si>
+    <t>0x0bed84750ea7d675b6793e6c9464fc2356e1e76d</t>
+  </si>
+  <si>
+    <t>0x123902d39d2b5006de993f8d2d829148c40bd2f3</t>
+  </si>
+  <si>
+    <t>0x199745e7b4efead0b2f027e3c3c88b1c77b3b780</t>
+  </si>
+  <si>
+    <t>0x1f92b5affd12981ef0fa7ba22a802379fd36929e</t>
+  </si>
+  <si>
+    <t>0x22e0175c9ddc50e0e66753a0537f4029cfcbb1e7</t>
+  </si>
+  <si>
+    <t>0x251612075db39256e11f2ce8fd5e91837ec41cd3</t>
+  </si>
+  <si>
+    <t>0x2e283c922ca04e3d0818965201cdca7f1f68d8e0</t>
+  </si>
+  <si>
+    <t>0x33a67c8d7b08fe266b09704bfdf91958370273bf</t>
+  </si>
+  <si>
+    <t>0x35fadf310e5c90f38c05f4f30a010cf6e86fc0e9</t>
+  </si>
+  <si>
+    <t>0x3d9b6e45bf2cf7252ce02942bd01ff8275245b56</t>
+  </si>
+  <si>
+    <t>0x3f2e7c43c44018ea1c148eda541ccdfd923ee18a</t>
+  </si>
+  <si>
+    <t>0x42a528b769cfb8e4720919446919b5848d6bb458</t>
+  </si>
+  <si>
+    <t>0x436ff0e7e5bdfa465a06d94b71c9635854169b68</t>
+  </si>
+  <si>
+    <t>0x5898ac9b7c95eacf22222e4e51ed5efc9cf6a045</t>
+  </si>
+  <si>
+    <t>0x5a45d196fee28d516720b3e204424f3454c032e2</t>
+  </si>
+  <si>
+    <t>0x604216da59bd334284bb879febaab547890e85d1</t>
+  </si>
+  <si>
+    <t>0x610bbcd4a67af74828ceadbff0aebc55f21b5b5d</t>
+  </si>
+  <si>
+    <t>0x69db96b584b6e25420a4aa2ca4b20e3860d19d8c</t>
+  </si>
+  <si>
+    <t>0x6b62e8d331c7968d4b3a65d3bbadf1e7b908151d</t>
+  </si>
+  <si>
+    <t>0x6c0d470d97ef1f230eef10a5c848afcc8261ed67</t>
+  </si>
+  <si>
+    <t>0x72f4e8b893527e3884bb4ac5a28d5fc65172ec4a</t>
+  </si>
+  <si>
+    <t>0x7cc0600c35c2799fee6f584c54646527cb824db2</t>
+  </si>
+  <si>
+    <t>0x7f514ea5abb2099e075eff21231427ca0279e979</t>
+  </si>
+  <si>
+    <t>0x85e5bc73dd304062dcf08c65302d5a872cabfa77</t>
+  </si>
+  <si>
+    <t>0x8de3c3891268502f77db7e876d727257dec0f852</t>
+  </si>
+  <si>
+    <t>0x9446e6a7b00f18f7f5dad20436d217b6df9f9421</t>
+  </si>
+  <si>
+    <t>0x948e422da3bd457289c526c8be6319949411bd5a</t>
+  </si>
+  <si>
+    <t>0x972f7046e67bfc10d1a452f8b5c91567cb9c053b</t>
+  </si>
+  <si>
+    <t>0x9dda9bc0e3769c94c75fd31a0ec936bdc0a7be04</t>
+  </si>
+  <si>
+    <t>0xa19661fd05e965a0a7f5bbf740c19d84d4e80c0a</t>
+  </si>
+  <si>
+    <t>0xa6b6d854e4e5f2b36e51d1dff81cad56e5f286c1</t>
+  </si>
+  <si>
+    <t>0xa6efba47141393bf1c4bc8739e2bb1bcdc332b7c</t>
+  </si>
+  <si>
+    <t>0xa9d3b1408353d05064d47daf0dc98e104eb9c98a</t>
+  </si>
+  <si>
+    <t>0xaa902d176987901f3c3d75efb50f33520e406647</t>
+  </si>
+  <si>
+    <t>0xb495023d8eb9526d8ec346703f2cff12f2a6963d</t>
+  </si>
+  <si>
+    <t>0xb4bd807c9cdde19ae1498c7b7006713268e25997</t>
+  </si>
+  <si>
+    <t>0xc9eebecb1d0aff4fb2b9978516e075a33639892c</t>
+  </si>
+  <si>
+    <t>0xce6c0bd926a76d715c829be4965ad064447d754f</t>
+  </si>
+  <si>
+    <t>0xd4d00a14d2d3181dbebeaf062933d150e9bafb27</t>
+  </si>
+  <si>
+    <t>0xd9010fb0b7df8bd85b7b614c01df9a65e032f60d</t>
+  </si>
+  <si>
+    <t>0xe41a5ae6484579a220b4be083e8a861e881d587e</t>
+  </si>
+  <si>
+    <t>0xe4bdfe211255fed62ec74fa13b286354e15a945a</t>
+  </si>
+  <si>
+    <t>0xed8e924735f590572361b52657abd9a3260f35a0</t>
+  </si>
+  <si>
+    <t>0xef46b09b69647412c129ebd8739bdf0f0c10dccd</t>
+  </si>
+  <si>
+    <t>0xf5618ee934dc23cfe4ae05c20e6d0fa4c26a57bd</t>
+  </si>
+  <si>
+    <t>0xf791b32bedac842c21ec1f28f0d633e17b8b4229</t>
+  </si>
+  <si>
+    <t>0xf903672ba62039591812141eecb4cfd9416cfc83</t>
+  </si>
+  <si>
+    <t>0xffe3385962b6bf54860f06dd35d5db3504bd1286</t>
   </si>
 </sst>
 </file>
@@ -686,940 +854,1295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A185"/>
+  <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A185"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" ht="28" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpharho/Documents/GitHub/ms-tokenlist/src/tokenLogos/nft-campaign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F18694-5545-1244-9B8B-486FB67E8637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EA809F-68DA-F64B-B769-F6D5D25F64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="226">
   <si>
     <t>Wallet</t>
   </si>
@@ -689,6 +689,21 @@
   </si>
   <si>
     <t>0xffe3385962b6bf54860f06dd35d5db3504bd1286</t>
+  </si>
+  <si>
+    <t>0x62d40948980043934e8060530b937cC72D75a013</t>
+  </si>
+  <si>
+    <t>0xe45ae2fc6f28c7b0b8aba6f844f95d6b052c7dee</t>
+  </si>
+  <si>
+    <t>0x4accc4f0781594deb1c382ea8a04b566927cfbed</t>
+  </si>
+  <si>
+    <t>0x9b511061f59f594e6a21afd2cd2ab0a5f130b261</t>
+  </si>
+  <si>
+    <t>0xf6d93ab1951592300ae82497271c4db987a2f70f</t>
   </si>
 </sst>
 </file>
@@ -854,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A256"/>
+  <dimension ref="A1:A268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2145,6 +2160,66 @@
         <v>220</v>
       </c>
     </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpharho/Documents/GitHub/ms-tokenlist/src/tokenLogos/nft-campaign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EA809F-68DA-F64B-B769-F6D5D25F64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DADEE1A-4BF4-4042-838C-65BB688888FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="236">
   <si>
     <t>Wallet</t>
   </si>
@@ -704,6 +704,36 @@
   </si>
   <si>
     <t>0xf6d93ab1951592300ae82497271c4db987a2f70f</t>
+  </si>
+  <si>
+    <t>0x1563c4751ad2be48fd17464b73585b6ba8b6a5f0</t>
+  </si>
+  <si>
+    <t>0x5d4df680d2aec9d745dd7dca1b28aad765e36ca6</t>
+  </si>
+  <si>
+    <t>0x65cec720ac2ee4e2a3ded3f6617332b373bccf27</t>
+  </si>
+  <si>
+    <t>0x672fd76b1d6c6287c3dbca06506552ab4f113c43</t>
+  </si>
+  <si>
+    <t>0xcb0ff126ed01183c1cc45ddc3798e5f923cf3abe</t>
+  </si>
+  <si>
+    <t>0x3F2E7c43C44018ea1C148eDA541CCdFD923ee18A</t>
+  </si>
+  <si>
+    <t>0x27Dd5747D456C3E5D9CbA08C7FedC660f03AC6f4</t>
+  </si>
+  <si>
+    <t>0x3900e9a59c174c36f284Ee6862E51316B7948BD7</t>
+  </si>
+  <si>
+    <t>0x9424A3b8445A1bD779D495FF2936f15cD13AB863</t>
+  </si>
+  <si>
+    <t>0xc8d37ce5761ac85d14f160c3aaa2d6e0bc3dc359</t>
   </si>
 </sst>
 </file>
@@ -869,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A268"/>
+  <dimension ref="A1:A293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A268"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2220,6 +2250,131 @@
         <v>225</v>
       </c>
     </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alpharho/Documents/GitHub/ms-tokenlist/src/tokenLogos/nft-campaign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DADEE1A-4BF4-4042-838C-65BB688888FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC255C8F-754F-5E49-9252-81F173A85D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="274">
   <si>
     <t>Wallet</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>0xbd680338b781ccbdaafdf25e902f54b4a4974600</t>
-  </si>
-  <si>
-    <t>0x3242c74a01044d4460b9f324c53b7aae0864bfa7</t>
   </si>
   <si>
     <t>0x187bf045a494c063df15d220026cce3532663e14</t>
@@ -734,6 +731,123 @@
   </si>
   <si>
     <t>0xc8d37ce5761ac85d14f160c3aaa2d6e0bc3dc359</t>
+  </si>
+  <si>
+    <t>0x6D1E0084a6910a8803ab7c22483A1a2Db3F1001a</t>
+  </si>
+  <si>
+    <t>0xc13328d8b1AC0fE844af15379F61357085E5AB83</t>
+  </si>
+  <si>
+    <t>0x672Fd76B1d6C6287C3dbca06506552AB4f113c43</t>
+  </si>
+  <si>
+    <t>0xe8Ab91771D1C7907660072eCBBA97e53d7B2F8B5</t>
+  </si>
+  <si>
+    <t>0xEC6B813F81295B5Eb47350C4840Df9c2122c6FE0</t>
+  </si>
+  <si>
+    <t>0xfe42b6bB30a076869a307Bd7B0Dc667B92fA6495</t>
+  </si>
+  <si>
+    <t>0xf903672BA62039591812141eecB4CFd9416CfC83</t>
+  </si>
+  <si>
+    <t>0x169272354b748334ce4c4bb11b4ba90a57cca95e</t>
+  </si>
+  <si>
+    <t>0x2da3d77c94edd3c53849ec9b740b22ed6ec70de6</t>
+  </si>
+  <si>
+    <t>0x42dbd726f2d74e7b1780afcacd46da8838a47c2b</t>
+  </si>
+  <si>
+    <t>0x4deaae930ae5251d28e500b2372c626088c85ce7</t>
+  </si>
+  <si>
+    <t>0x746b70df44f2bccaf7092d4989d3f18c774a222d</t>
+  </si>
+  <si>
+    <t>0x8e4829007de029a6c76c6b371939047ea123e4fa</t>
+  </si>
+  <si>
+    <t>0x9cc2611b694dcc926aeb7a741f69d78aa9b58326</t>
+  </si>
+  <si>
+    <t>0xa6861734e12e45e3b3a1dfc3d06d1bc5d3c34589</t>
+  </si>
+  <si>
+    <t>0xa7ff0bc6f74fc6c49ccba87f3df51b1adf98543d</t>
+  </si>
+  <si>
+    <t>0xb1fc41cbad16cafdfc2ed196c7fe515dfb6a1577</t>
+  </si>
+  <si>
+    <t>0xc4dcb599efc2c923fe09773c96150f5f3e8c4b9c</t>
+  </si>
+  <si>
+    <t>0xf3bf633759e993d7849b6c25b442432a81139367</t>
+  </si>
+  <si>
+    <t>0xf8ebafee4ce8693a0c0110de034fae3fc586f7e4</t>
+  </si>
+  <si>
+    <t>0x14fd7d24ebf81196dfd6d3af740d5024071859f8</t>
+  </si>
+  <si>
+    <t>0x2c548219b2c031320d281734f83727d58f7124a5</t>
+  </si>
+  <si>
+    <t>0x33fe3e3125f35e7c80767eae14f3f3f9dca5f85d</t>
+  </si>
+  <si>
+    <t>0x35af255743d5c3928c9c544cef025ba2019120d5</t>
+  </si>
+  <si>
+    <t>0x44eaaabd0d0b45f582f50bccc94a198dafb464c9</t>
+  </si>
+  <si>
+    <t>0x516649dbd606a980e767bdedbcd882d91c859c9c</t>
+  </si>
+  <si>
+    <t>0x64852af18fead6e2677b26e6bcda95ca166a4f9d</t>
+  </si>
+  <si>
+    <t>0x6e300d553fed81ab251ef85fe1226f2a1d9b6e0a</t>
+  </si>
+  <si>
+    <t>0x6e4bb750ab33c7dd5bc0ea274a5055083c38355e</t>
+  </si>
+  <si>
+    <t>0x8404b503d9ca265f787d813efa00deae2f71da8f</t>
+  </si>
+  <si>
+    <t>0x856a8284b6ae62ca00ef00d9dcf39cbef09103de</t>
+  </si>
+  <si>
+    <t>0x945f6c41516224ffef1f5c24f108b6ddd7e0c828</t>
+  </si>
+  <si>
+    <t>0x549ccfafaf2b331e28f55691bd013ddf938cbe3f</t>
+  </si>
+  <si>
+    <t>0xab5f6b2b24b5e7b8ee5218d534f0ff8cffd88d5c</t>
+  </si>
+  <si>
+    <t>0xaf26150c902850fa43b63a1a9777bba709a9707e</t>
+  </si>
+  <si>
+    <t>0xe19763baa197e17a5663f8941177bfbbd31a7ab0</t>
+  </si>
+  <si>
+    <t>0xe5845761e7773976055f2559ca54be41f09d9e88</t>
+  </si>
+  <si>
+    <t>0xeea82680067968f56515590202c6b49969c0ecc3</t>
+  </si>
+  <si>
+    <t>0xf09f478c31c247602c019c5c1b700e766ec5fe10</t>
   </si>
 </sst>
 </file>
@@ -899,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A293"/>
+  <dimension ref="A1:A364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293"/>
+    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -932,7 +1046,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
@@ -1187,7 +1301,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
@@ -1287,7 +1401,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
@@ -1347,12 +1461,12 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
@@ -1432,12 +1546,12 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
@@ -1527,12 +1641,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
@@ -1577,22 +1691,22 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
@@ -1627,16 +1741,16 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1657,12 +1771,12 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
@@ -1712,52 +1826,52 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
@@ -1767,7 +1881,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
@@ -1777,42 +1891,42 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
@@ -1822,7 +1936,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.15">
@@ -1832,42 +1946,42 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
@@ -1887,42 +2001,42 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
@@ -1932,12 +2046,12 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
@@ -1947,12 +2061,12 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
@@ -1962,12 +2076,12 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
@@ -1977,12 +2091,12 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.15">
@@ -1992,22 +2106,22 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
@@ -2017,17 +2131,17 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
@@ -2037,7 +2151,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
@@ -2047,17 +2161,17 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
@@ -2067,32 +2181,32 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
@@ -2102,67 +2216,67 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
@@ -2172,207 +2286,562 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\tokenlist\src\tokenLogos\nft-campaign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wukong/Documents/GitHub/tokenlist/src/tokenLogos/nft-campaign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F211FF-71C6-4835-81BB-01ABD78820DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0206C140-6A54-5047-A790-2CE7B2237E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1620" windowWidth="19935" windowHeight="13725" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Metronix NFT List - For" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="354">
   <si>
     <t>Wallet</t>
   </si>
@@ -929,18 +929,182 @@
   </si>
   <si>
     <t>0xcffbcc29788385fb9473c22e955b1a7f3a7721bb</t>
+  </si>
+  <si>
+    <t>0xC1e4Ebf1bC81fa64802b2BceF779c4Da90f9b646</t>
+  </si>
+  <si>
+    <t>0x05a3a14b4c179b9a3a3f3a8933853f95dd87b9ea</t>
+  </si>
+  <si>
+    <t>0x1385a6aad6e6f7a396f7041b60807ce11306b4d1</t>
+  </si>
+  <si>
+    <t>0x2e918a8529e58494ff1bc6a63d9a425e113044c3</t>
+  </si>
+  <si>
+    <t>0x3d7280047ff3c3937414f29debc7ae203240c22d</t>
+  </si>
+  <si>
+    <t>0x3da2b5a4838ea10b9870a65a1571da989a519079</t>
+  </si>
+  <si>
+    <t>0x4662b891269e2196e67cca73e4b7812dd91c7ae3</t>
+  </si>
+  <si>
+    <t>0x499654b8d5ba3d318fc80ad478d28ca3530e4c65</t>
+  </si>
+  <si>
+    <t>0x4dffd217f4951af952577888036b084bb3f6a596</t>
+  </si>
+  <si>
+    <t>0x5882aa5d97391af0889dd4d16c3194e96a7abe00</t>
+  </si>
+  <si>
+    <t>0x5d02c857e98465f5b3a957b1f43569c4dae58ca0</t>
+  </si>
+  <si>
+    <t>0x7ad92e2b66c772ca9c56d4b59660ed537b28ab90</t>
+  </si>
+  <si>
+    <t>0x7d828b25640079d2461fde495f4b129c86abce12</t>
+  </si>
+  <si>
+    <t>0x9015cfe99fee5a2f5a01c2c6b89393bb166d6dbb</t>
+  </si>
+  <si>
+    <t>0x9809675e4dad5fae3bd8145a92a9fb49f4684c45</t>
+  </si>
+  <si>
+    <t>0xb40488bbde7c183c8ef9d6ba4a8682662d1d0b0d</t>
+  </si>
+  <si>
+    <t>0xe7f969671f7dd4f37fb2b0548041e2fd3569d228</t>
+  </si>
+  <si>
+    <t>0xfa49e18ee36ec385662728fc1cfa43f0b99398d5</t>
+  </si>
+  <si>
+    <t>0x0dc603d5f446419410bb11c8411109f4698bf53a</t>
+  </si>
+  <si>
+    <t>0x2adf8c8b31809418f6ca45866cf1e4d2d73577bb</t>
+  </si>
+  <si>
+    <t>0x3f0bc06e72ac5716352b466c856a84d1aab6fef9</t>
+  </si>
+  <si>
+    <t>0x4331975811756f18d61cbe8f6a2ff62d188f41e4</t>
+  </si>
+  <si>
+    <t>0x98c1803ff7ab06224b0042c191e7ce45da3307d3</t>
+  </si>
+  <si>
+    <t>0xaf1bff74708098db603e48aaebec1bbae03dcf11</t>
+  </si>
+  <si>
+    <t>0xdba5b042e602d40e9385e6efcf3d3fdccdfbba62</t>
+  </si>
+  <si>
+    <t>0xe48d1b2480ffb16cc4fecdac732ceecd672bb078</t>
+  </si>
+  <si>
+    <t>0xE4A56549d5BaE3902473C1145b8a7B74281b82A4</t>
+  </si>
+  <si>
+    <t>0xAf1ee1415b3c58B8d5A2dFEaFDa5176D2C158bEE</t>
+  </si>
+  <si>
+    <t>0xBcA4D68BE543dCEFb1a8bcCb519503f9ba3f2026</t>
+  </si>
+  <si>
+    <t>0x5fcccF852f5c4AcbD37616Ca880916Ecc97e1e86</t>
+  </si>
+  <si>
+    <t>0x853725B17E61d03233540F3b1F45fc45335348Fa</t>
+  </si>
+  <si>
+    <t>0x009d13e9bec94bf16791098ce4e5c168d27a9f07</t>
+  </si>
+  <si>
+    <t>0x04c59314f7fbcdc5794c997aa7fe5327a628cb12</t>
+  </si>
+  <si>
+    <t>0x220faf934025b7824af72bd6f27153b0f01f2364</t>
+  </si>
+  <si>
+    <t>0x452eef5b538e3fed4fca31326678a0a51e0e335d</t>
+  </si>
+  <si>
+    <t>0x47c8260e5279495a9307ac7481eaa9ff977a02e0</t>
+  </si>
+  <si>
+    <t>0x4c884677427a975d1b99286e99188c82d71223c8</t>
+  </si>
+  <si>
+    <t>0x4f1f1353d84013f4c4317a6a4b07bbfbac978a3e</t>
+  </si>
+  <si>
+    <t>0x5fcccf852f5c4acbd37616ca880916ecc97e1e86</t>
+  </si>
+  <si>
+    <t>0x7b166a8d816c36f2f8365444a728abf134f3f0a0</t>
+  </si>
+  <si>
+    <t>0x7c9bcdbbbb49e61222383a89c1300d29da283a8f</t>
+  </si>
+  <si>
+    <t>0x8120c35781572b58df6e92d45f2f797a5dbfadcd</t>
+  </si>
+  <si>
+    <t>0x853725b17e61d03233540f3b1f45fc45335348fa</t>
+  </si>
+  <si>
+    <t>0x8a30fe8dd7c1b8ee6fff8892731ed345b9e33b29</t>
+  </si>
+  <si>
+    <t>0x9424a3b8445a1bd779d495ff2936f15cd13ab863</t>
+  </si>
+  <si>
+    <t>0x9dfe04cd02f36851cf4e27fe933f2c62264dc85d</t>
+  </si>
+  <si>
+    <t>0xb04f3175da53f046c9a655ecda2c9e5be38b99ca</t>
+  </si>
+  <si>
+    <t>0xc40137181d7d7e61a2098673000c4b4494b06785</t>
+  </si>
+  <si>
+    <t>0xc991a6766c0a4299ee26dcef828bebd0f8cfa13a</t>
+  </si>
+  <si>
+    <t>0xd3678d44fdd5b0961d8ad11c366a3bc0c1ab8914</t>
+  </si>
+  <si>
+    <t>0xd6636cb506fdf141c548c19f4f6182a68da61e3f</t>
+  </si>
+  <si>
+    <t>0xe4a7444982bcb4921f4c9a28ca380bea21616bb9</t>
+  </si>
+  <si>
+    <t>0xfff86782445bee51fdbd69f876c270176e16725d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -963,9 +1127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1095,2124 +1260,2774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A422"/>
+  <dimension ref="A1:A552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A422" sqref="A422"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A552" sqref="A552"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A411" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A414" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A415" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A416" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A417" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A420" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A421" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A422" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A423" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A424" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A425" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A426" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A427" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A428" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A429" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A430" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A431" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A432" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A433" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A434" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A435" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A436" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A437" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A438" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A439" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A440" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A441" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A442" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A443" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A444" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A445" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A446" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A447" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A448" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A449" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A450" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A451" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A452" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A453" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A454" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A455" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A456" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A457" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A458" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A459" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A460" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A461" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A462" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A463" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A464" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A465" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A466" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A467" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A468" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A469" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A470" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A471" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A472" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A473" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A474" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A475" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A476" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A477" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A478" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A479" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A480" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A481" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A482" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A483" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A484" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A485" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A486" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A487" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A488" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A489" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A490" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A491" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A492" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A493" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A494" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A495" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A496" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A497" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A498" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A499" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A500" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A501" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A502" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A503" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A504" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A505" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A506" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A507" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A508" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A509" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A510" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A511" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A512" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A513" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A514" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A515" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A516" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A517" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A518" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A519" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A520" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A521" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A522" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A523" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A524" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A525" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A526" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A527" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A528" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A529" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A530" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A531" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A532" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A533" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A534" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A535" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A536" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A537" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A538" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A539" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A540" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A541" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A542" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A543" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A544" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A545" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A546" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A547" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A548" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A549" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A550" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A551" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A552" s="1" t="s">
         <v>233</v>
       </c>
     </row>

--- a/src/tokenLogos/nft-campaign/nft-campaign.xlsx
+++ b/src/tokenLogos/nft-campaign/nft-campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wukong/Documents/GitHub/tokenlist/src/tokenLogos/nft-campaign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0206C140-6A54-5047-A790-2CE7B2237E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02564281-5029-AD42-9452-E038FE8F03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="396">
   <si>
     <t>Wallet</t>
   </si>
@@ -906,10 +906,6 @@
     <t>0x046cd7B314cB8476f72413F72d30E0E10DF9E295</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6c1fb03612e943d2b7cb0bbde0fb3470a0e633f2 
-</t>
-  </si>
-  <si>
     <t>0x74192fEa5CC4fe354451A92c3ac86F3CbebdfF51</t>
   </si>
   <si>
@@ -1088,6 +1084,135 @@
   </si>
   <si>
     <t>0xfff86782445bee51fdbd69f876c270176e16725d</t>
+  </si>
+  <si>
+    <t>0xEdA7C7cbb445fFE716e728fE991Bec9588d352EE</t>
+  </si>
+  <si>
+    <t>0x2a4C9c73f7D9281D792e4A2b7260a842B5666c42</t>
+  </si>
+  <si>
+    <t>0x4258e423d038c4011dd975c1313ddfff870abda2</t>
+  </si>
+  <si>
+    <t>0xF55584C47ccAA6a2DE0cd1E297f9e43068D10F39</t>
+  </si>
+  <si>
+    <t>0xa2A334762fc08eeCEC8A3CaaA804d34aAa15b41c</t>
+  </si>
+  <si>
+    <t>0x695c2e62a23E877870A24ade3152f5b0dDEd1369</t>
+  </si>
+  <si>
+    <t>0xA0e6CEa77e382f9DA8a1B5eCACf299f92310CDEf</t>
+  </si>
+  <si>
+    <t>0xBf4f369A9072AF9bF754929163a27441F7aa259f</t>
+  </si>
+  <si>
+    <t>0x492dc7C903c4Af432fB67ef843D4EF8B0dA0AAD5</t>
+  </si>
+  <si>
+    <t>0x357ae2fEa8aEac0F55dEa43fe70ce15f4af06C64</t>
+  </si>
+  <si>
+    <t>0x98c1803Ff7AB06224B0042C191e7cE45DA3307d3</t>
+  </si>
+  <si>
+    <t>0xdb2E27ba691A05d15c0c7c750aD7B21774d7503a</t>
+  </si>
+  <si>
+    <t>0x292fc2236f0125a353fbf992adc19cb8cedea8e6</t>
+  </si>
+  <si>
+    <t>0x00823404D9FBbf8572a4d1bd5c75C9dfB3F76564</t>
+  </si>
+  <si>
+    <t>0x66d45a4ea62d3f1335632c0c254004d05e9701f6</t>
+  </si>
+  <si>
+    <t>0x3bC8631E2c59f99180B738D6aEFd881921A6AF5A</t>
+  </si>
+  <si>
+    <t>0xa8C320bC7581cA1A24521a9E56a46553aD67e4b0</t>
+  </si>
+  <si>
+    <t>0x12595d697f354b290d09937f5ab880495b2e7ebc</t>
+  </si>
+  <si>
+    <t>0x235987b53ed16a5f331c3648f78cbc148a877d27</t>
+  </si>
+  <si>
+    <t>0x250a2590389102d58ae91256ca431399a273bceb</t>
+  </si>
+  <si>
+    <t>0x2aecd699fe20f5ce79ccec0bc20b5ec93aa1a2b0</t>
+  </si>
+  <si>
+    <t>0x74192fea5cc4fe354451a92c3ac86f3cbebdff51</t>
+  </si>
+  <si>
+    <t>0xBC98f32913cD241F7227a398bF34659D0b18584b</t>
+  </si>
+  <si>
+    <t>0x9e1d38565c4c8d0a2deba5a4de6ce0d3b8132343</t>
+  </si>
+  <si>
+    <t>0xa999e961051702b22bdf746c5b538747054782e7</t>
+  </si>
+  <si>
+    <t>0xaa63ed455c421b4350f2a3e811ba7817bc18829a</t>
+  </si>
+  <si>
+    <t>0xb0fecff8ab2b45778cc022f7f0f98d0a2b0133a0</t>
+  </si>
+  <si>
+    <t>0xc1e4ebf1bc81fa64802b2bcef779c4da90f9b646</t>
+  </si>
+  <si>
+    <t>0xcc266b09753f842f2c80c2ee1ef4b1052226a6d5</t>
+  </si>
+  <si>
+    <t>0xd67e0a40ef741760eb3b34dc39ff2a9e8b062932</t>
+  </si>
+  <si>
+    <t>0xd88e278c0125e00941242799935ea24779d74c9b</t>
+  </si>
+  <si>
+    <t>0xf58e3439731e06e89251f1641a2f02b4a58bc4d1</t>
+  </si>
+  <si>
+    <t>0xacfE4105829b9EE94e9Bebc95c23cCB21C296340</t>
+  </si>
+  <si>
+    <t>0x1076fa0943Cabc061ba09a110884828a2325b052</t>
+  </si>
+  <si>
+    <t>0xb53a6D8a52dbA3Fd3DCE62D9954FDE0EaACe22C3</t>
+  </si>
+  <si>
+    <t>0xd83553F0551B81f9bF9366511a599Fabc0B961e9</t>
+  </si>
+  <si>
+    <t>0xf47fbEFFc82ca4A2c8560AcCF2357D4175737Bc4</t>
+  </si>
+  <si>
+    <t>0x8BA8Aad2B6DF24F453884Bf69A945575D278Ff44</t>
+  </si>
+  <si>
+    <t>0xab078b2e2f5f25173236493a331ad8c4cfea4db2</t>
+  </si>
+  <si>
+    <t>0x35FAdf310e5C90F38C05f4F30A010Cf6e86fC0e9</t>
+  </si>
+  <si>
+    <t>0x9202ced291c1ed9afbe5eacdf3c8adf704fae70b</t>
+  </si>
+  <si>
+    <t>0xabf552b23902ccc9b1a36512cfac9869a15c76f6</t>
+  </si>
+  <si>
+    <t>0x137a48f028be804425428cdd1591675a583235e0</t>
   </si>
 </sst>
 </file>
@@ -1127,12 +1252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A552"/>
+  <dimension ref="A1:A700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A552" sqref="A552"/>
+    <sheetView tabSelected="1" topLeftCell="A650" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A701" sqref="A701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1403,7 +1525,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -1493,7 +1615,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
@@ -1633,7 +1755,7 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
@@ -1763,7 +1885,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
@@ -1996,9 +2118,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A146" s="2" t="s">
-        <v>293</v>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
@@ -2228,7 +2350,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>170</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
@@ -2478,7 +2600,7 @@
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>207</v>
+        <v>358</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
@@ -2793,7 +2915,7 @@
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
@@ -2923,7 +3045,7 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
-        <v>253</v>
+        <v>360</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
@@ -3323,7 +3445,7 @@
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.15">
@@ -3338,37 +3460,37 @@
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.15">
@@ -3378,7 +3500,7 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.15">
@@ -3388,7 +3510,7 @@
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.15">
@@ -3398,7 +3520,7 @@
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.15">
@@ -3408,7 +3530,7 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.15">
@@ -3428,17 +3550,17 @@
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.15">
@@ -3448,12 +3570,12 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.15">
@@ -3463,7 +3585,7 @@
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.15">
@@ -3473,12 +3595,12 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.15">
@@ -3498,12 +3620,12 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.15">
@@ -3513,12 +3635,12 @@
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.15">
@@ -3528,7 +3650,7 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.15">
@@ -3558,12 +3680,12 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.15">
@@ -3573,12 +3695,12 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.15">
@@ -3588,7 +3710,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.15">
@@ -3603,7 +3725,7 @@
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.15">
@@ -3613,7 +3735,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.15">
@@ -3643,12 +3765,12 @@
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
-        <v>287</v>
+        <v>361</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.15">
@@ -3673,7 +3795,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.15">
@@ -3683,7 +3805,7 @@
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.15">
@@ -3698,7 +3820,7 @@
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.15">
@@ -3743,47 +3865,47 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A497" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A499" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A500" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A502" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A503" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.15">
@@ -3793,67 +3915,67 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A505" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A506" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A507" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A509" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A513" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A514" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A515" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.15">
@@ -3863,7 +3985,7 @@
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A519" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.15">
@@ -3873,22 +3995,22 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A523" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.15">
@@ -3898,7 +4020,7 @@
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A526" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.15">
@@ -3908,12 +4030,12 @@
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A528" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.15">
@@ -3923,32 +4045,32 @@
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A533" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.15">
@@ -3968,7 +4090,7 @@
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A540" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.15">
@@ -3978,27 +4100,27 @@
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A542" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A544" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.15">
@@ -4023,12 +4145,752 @@
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A551" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A552" s="1" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A553" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A554" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A555" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A556" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A557" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A558" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A559" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A560" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A561" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A562" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A563" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A564" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A565" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A566" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A567" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A568" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A569" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A570" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A571" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A572" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A573" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A574" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A575" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A576" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A577" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A578" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A579" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A580" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A581" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A582" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A583" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A584" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A585" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A586" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A587" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A588" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A589" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A590" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A591" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A592" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A593" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A594" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A595" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A596" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A597" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A598" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A599" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A600" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A601" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A602" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A603" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A604" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A605" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A606" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A607" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A608" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A609" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A610" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A611" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A612" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A613" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A614" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A615" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A616" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A617" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A618" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A619" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A620" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A621" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A622" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A623" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A624" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A625" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A626" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A627" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A628" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A629" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A630" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A631" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A632" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A633" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A634" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A635" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A636" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A637" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A638" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A639" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A640" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A641" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A642" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A643" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A644" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A645" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A646" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A647" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A648" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A649" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A650" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A651" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A652" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A653" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A654" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A655" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A656" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A657" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A658" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A659" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A660" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A661" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A662" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A663" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A664" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A665" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A666" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A667" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A668" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A669" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A670" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A671" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A672" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A673" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A674" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A675" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A676" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A677" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A678" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A679" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A680" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A681" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A682" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A683" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A684" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A685" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A686" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A687" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A688" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A689" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A690" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A691" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A692" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A693" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A694" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A695" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A696" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A697" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A698" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A699" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A700" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
